--- a/final_files/Medical_examination.xlsx
+++ b/final_files/Medical_examination.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\SE1PEPF0000C247\EXCELCNV\d389b21e-4ca2-400e-9ae5-b606855ff5fb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\aisafe_back\final_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{9A34C4D0-B41B-456C-BAF8-D18F6E444CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4647018A-0B74-42F7-8C22-317DFDBAD2AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C17C02-6FB5-4C82-B9D8-EA5AC4159AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{0776295B-B339-44A3-90B5-A6AA64F93CD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0776295B-B339-44A3-90B5-A6AA64F93CD9}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -76,7 +65,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -84,7 +73,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -92,7 +81,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -101,7 +90,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -110,7 +99,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -119,7 +108,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -127,7 +116,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -135,7 +124,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -143,7 +132,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -151,7 +140,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -160,7 +149,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -169,7 +158,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -177,7 +166,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -186,7 +175,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -194,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -203,7 +192,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -212,7 +201,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -220,14 +209,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -721,7 +710,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1020,10 +1009,10 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
